--- a/data/pca/factorExposure/factorExposure_2017-11-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02521657591574296</v>
+        <v>-0.0142951916945888</v>
       </c>
       <c r="C2">
-        <v>-0.000154805844601324</v>
+        <v>0.039295627170075</v>
       </c>
       <c r="D2">
-        <v>-0.004068807377423785</v>
+        <v>-0.02826243549213759</v>
       </c>
       <c r="E2">
-        <v>-0.01833131099788055</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02644785953251773</v>
+      </c>
+      <c r="F2">
+        <v>0.032862250750296</v>
+      </c>
+      <c r="G2">
+        <v>-0.01245596307518689</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01180400731839122</v>
+        <v>-0.05492254932015202</v>
       </c>
       <c r="C3">
-        <v>-0.0478219465375615</v>
+        <v>0.08056423007227355</v>
       </c>
       <c r="D3">
-        <v>0.009923856338264495</v>
+        <v>-0.01441871964781325</v>
       </c>
       <c r="E3">
-        <v>0.044454874310081</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08031850250784998</v>
+      </c>
+      <c r="F3">
+        <v>0.05992552579431656</v>
+      </c>
+      <c r="G3">
+        <v>-0.07548333756552392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02382103099932581</v>
+        <v>-0.05567125451087123</v>
       </c>
       <c r="C4">
-        <v>-0.0333018146209999</v>
+        <v>0.06159117076282791</v>
       </c>
       <c r="D4">
-        <v>-0.03454005173079237</v>
+        <v>-0.02210806181962645</v>
       </c>
       <c r="E4">
-        <v>-0.03747017897318571</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.0002300042878119993</v>
+      </c>
+      <c r="F4">
+        <v>0.01792417820380313</v>
+      </c>
+      <c r="G4">
+        <v>-0.04073473011719744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01632775692516072</v>
+        <v>-0.03192327266381511</v>
       </c>
       <c r="C6">
-        <v>-0.05154817378132963</v>
+        <v>0.05576445715054962</v>
       </c>
       <c r="D6">
-        <v>-0.02986537837349683</v>
+        <v>-0.01620680246432148</v>
       </c>
       <c r="E6">
-        <v>-0.05609823200557836</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.004410550974002042</v>
+      </c>
+      <c r="F6">
+        <v>0.01926976410168356</v>
+      </c>
+      <c r="G6">
+        <v>-0.02292197030349435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01213900431625582</v>
+        <v>-0.01999531264035629</v>
       </c>
       <c r="C7">
-        <v>-0.02232711487232208</v>
+        <v>0.03833300852005622</v>
       </c>
       <c r="D7">
-        <v>-0.06401601796285593</v>
+        <v>-0.01238580970699667</v>
       </c>
       <c r="E7">
-        <v>0.02763838630741804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01426957998349466</v>
+      </c>
+      <c r="F7">
+        <v>0.01041982760980154</v>
+      </c>
+      <c r="G7">
+        <v>-0.07560253497411962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001932581188782337</v>
+        <v>0.003188433750322977</v>
       </c>
       <c r="C8">
-        <v>0.01890580720511264</v>
+        <v>0.01421475649946187</v>
       </c>
       <c r="D8">
-        <v>-0.01794178302147348</v>
+        <v>-0.003792545774328242</v>
       </c>
       <c r="E8">
-        <v>-0.01706069066841475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01640915717498052</v>
+      </c>
+      <c r="F8">
+        <v>0.02329916035408433</v>
+      </c>
+      <c r="G8">
+        <v>-0.02569826706911041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01479963828642025</v>
+        <v>-0.02811957341623836</v>
       </c>
       <c r="C9">
-        <v>-0.02369059269700612</v>
+        <v>0.04240079052832719</v>
       </c>
       <c r="D9">
-        <v>-0.01927625848853314</v>
+        <v>-0.01530567000767596</v>
       </c>
       <c r="E9">
-        <v>-0.01878085950966299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.003113421424925278</v>
+      </c>
+      <c r="F9">
+        <v>0.01961216514186342</v>
+      </c>
+      <c r="G9">
+        <v>-0.03151973386417526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01236421620612986</v>
+        <v>-0.08562415703597438</v>
       </c>
       <c r="C10">
-        <v>-0.082172285451935</v>
+        <v>-0.1856235691970545</v>
       </c>
       <c r="D10">
-        <v>0.07131125965912624</v>
+        <v>0.01869557130337896</v>
       </c>
       <c r="E10">
-        <v>0.1422709870957573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02118665058218044</v>
+      </c>
+      <c r="F10">
+        <v>-0.01417709135641736</v>
+      </c>
+      <c r="G10">
+        <v>-0.0383335691742713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0002065295366312335</v>
+        <v>-0.03641933397160334</v>
       </c>
       <c r="C11">
-        <v>-0.01895893455785816</v>
+        <v>0.05313273334218829</v>
       </c>
       <c r="D11">
-        <v>-0.007803860562561463</v>
+        <v>-0.001161039605237499</v>
       </c>
       <c r="E11">
-        <v>-0.03376399673152062</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.003529457871361318</v>
+      </c>
+      <c r="F11">
+        <v>0.02426349892603693</v>
+      </c>
+      <c r="G11">
+        <v>-0.01265128308784649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005627429608139104</v>
+        <v>-0.03365146345776096</v>
       </c>
       <c r="C12">
-        <v>-0.028153682900602</v>
+        <v>0.0440595133425071</v>
       </c>
       <c r="D12">
-        <v>-0.01562751605841073</v>
+        <v>-0.005317996388234878</v>
       </c>
       <c r="E12">
-        <v>-0.03429741385584378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.009803968405737442</v>
+      </c>
+      <c r="F12">
+        <v>0.007406329343389033</v>
+      </c>
+      <c r="G12">
+        <v>-0.01722433749814854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02106256064421258</v>
+        <v>-0.01063228060693897</v>
       </c>
       <c r="C13">
-        <v>-0.01027957674597423</v>
+        <v>0.0350993110957448</v>
       </c>
       <c r="D13">
-        <v>-7.540782124644921e-05</v>
+        <v>-0.02467323812577476</v>
       </c>
       <c r="E13">
-        <v>-0.009594317790366949</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02066923519153743</v>
+      </c>
+      <c r="F13">
+        <v>0.02444890894559864</v>
+      </c>
+      <c r="G13">
+        <v>-0.02735720710947789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007658171215459064</v>
+        <v>-0.00668077397899715</v>
       </c>
       <c r="C14">
-        <v>-0.01180291511065193</v>
+        <v>0.02482823913003421</v>
       </c>
       <c r="D14">
-        <v>-0.01662836758468765</v>
+        <v>-0.008503750880912859</v>
       </c>
       <c r="E14">
-        <v>-0.001268344089468183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.004977309610736376</v>
+      </c>
+      <c r="F14">
+        <v>0.00442642781878484</v>
+      </c>
+      <c r="G14">
+        <v>-0.03678516880253258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0009094007506621869</v>
+        <v>-0.03305117971383505</v>
       </c>
       <c r="C16">
-        <v>-0.02378720028744825</v>
+        <v>0.04377843722464342</v>
       </c>
       <c r="D16">
-        <v>-0.01706406704492224</v>
+        <v>-0.0007509684191058385</v>
       </c>
       <c r="E16">
-        <v>-0.0369106030797119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.001379661358475016</v>
+      </c>
+      <c r="F16">
+        <v>0.0100814718687436</v>
+      </c>
+      <c r="G16">
+        <v>-0.01610888850475393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01218981194357661</v>
+        <v>-0.03057252027170472</v>
       </c>
       <c r="C19">
-        <v>-0.01769655094798345</v>
+        <v>0.05599168843228465</v>
       </c>
       <c r="D19">
-        <v>-0.0151056436307637</v>
+        <v>-0.0152897072770749</v>
       </c>
       <c r="E19">
-        <v>-0.03152135440945013</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.03911616058364308</v>
+      </c>
+      <c r="F19">
+        <v>0.03878685430444623</v>
+      </c>
+      <c r="G19">
+        <v>-0.03533908780826972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.008840299747933157</v>
+        <v>-0.01087544083673017</v>
       </c>
       <c r="C20">
-        <v>-0.002548866580117503</v>
+        <v>0.03550304096853936</v>
       </c>
       <c r="D20">
-        <v>-0.004208396587399537</v>
+        <v>-0.01298948781992971</v>
       </c>
       <c r="E20">
-        <v>0.0008757000305941361</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.01941000062627455</v>
+      </c>
+      <c r="F20">
+        <v>0.006984510728963726</v>
+      </c>
+      <c r="G20">
+        <v>-0.0281492807875815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01550599035837013</v>
+        <v>-0.01225723511206671</v>
       </c>
       <c r="C21">
-        <v>-0.02983867782558062</v>
+        <v>0.03419270754175281</v>
       </c>
       <c r="D21">
-        <v>-0.02199504623605918</v>
+        <v>-0.01599785280985865</v>
       </c>
       <c r="E21">
-        <v>-0.0006516760522852106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.02712776146137612</v>
+      </c>
+      <c r="F21">
+        <v>0.02128788639663544</v>
+      </c>
+      <c r="G21">
+        <v>-0.05034773212206533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004268076788118292</v>
+        <v>-0.02715943542016068</v>
       </c>
       <c r="C24">
-        <v>-0.02156774477290668</v>
+        <v>0.04663792672409197</v>
       </c>
       <c r="D24">
-        <v>-0.01344542509082666</v>
+        <v>-0.006198341062435532</v>
       </c>
       <c r="E24">
-        <v>-0.03204283862540919</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.007236129173099701</v>
+      </c>
+      <c r="F24">
+        <v>0.01999368906650266</v>
+      </c>
+      <c r="G24">
+        <v>-0.01542594094605536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01092789067016787</v>
+        <v>-0.0441923374905535</v>
       </c>
       <c r="C25">
-        <v>-0.03480227008635738</v>
+        <v>0.05265986080608126</v>
       </c>
       <c r="D25">
-        <v>-0.01223412834204707</v>
+        <v>-0.00998709445235329</v>
       </c>
       <c r="E25">
-        <v>-0.03466502155349044</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01396312123016376</v>
+      </c>
+      <c r="F25">
+        <v>0.0142367318816342</v>
+      </c>
+      <c r="G25">
+        <v>-0.02225660182729602</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02364097857911595</v>
+        <v>-0.007690633682782584</v>
       </c>
       <c r="C26">
-        <v>0.001432685175135275</v>
+        <v>0.008629065913833674</v>
       </c>
       <c r="D26">
-        <v>-0.006677739324891073</v>
+        <v>-0.02376351901809727</v>
       </c>
       <c r="E26">
-        <v>0.007185319092306353</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.008435909223122028</v>
+      </c>
+      <c r="F26">
+        <v>0.006902148748083135</v>
+      </c>
+      <c r="G26">
+        <v>-0.02633126456226733</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02687843170492184</v>
+        <v>-0.1076542758965869</v>
       </c>
       <c r="C28">
-        <v>-0.1234687614234553</v>
+        <v>-0.2272941525342618</v>
       </c>
       <c r="D28">
-        <v>0.1084551461057307</v>
+        <v>0.01001291025265185</v>
       </c>
       <c r="E28">
-        <v>0.2167582372198859</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.008930774020883327</v>
+      </c>
+      <c r="F28">
+        <v>-0.007393419179581797</v>
+      </c>
+      <c r="G28">
+        <v>-0.05343881644232171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007641804963733274</v>
+        <v>-0.01152609241639025</v>
       </c>
       <c r="C29">
-        <v>-0.0147993802855823</v>
+        <v>0.01922114472309244</v>
       </c>
       <c r="D29">
-        <v>-0.01140616714259532</v>
+        <v>-0.007279990819619334</v>
       </c>
       <c r="E29">
-        <v>-0.0008807701826183619</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.002843615424509326</v>
+      </c>
+      <c r="F29">
+        <v>-0.004922529079243991</v>
+      </c>
+      <c r="G29">
+        <v>-0.03102421430343059</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02652642368742646</v>
+        <v>-0.04021681485250873</v>
       </c>
       <c r="C30">
-        <v>-0.0295534768001442</v>
+        <v>0.07142180741498508</v>
       </c>
       <c r="D30">
-        <v>0.0224995542178194</v>
+        <v>-0.02677056943665339</v>
       </c>
       <c r="E30">
-        <v>-0.08100804483586287</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.01857998637535158</v>
+      </c>
+      <c r="F30">
+        <v>0.04578540157398746</v>
+      </c>
+      <c r="G30">
+        <v>0.006497723011343398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.006672283689020512</v>
+        <v>-0.04277418816732911</v>
       </c>
       <c r="C31">
-        <v>-0.04507837750795132</v>
+        <v>0.03085105611177554</v>
       </c>
       <c r="D31">
-        <v>-0.01836634718259566</v>
+        <v>-0.003083551384228284</v>
       </c>
       <c r="E31">
-        <v>-0.0135998412751251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01209388272963304</v>
+      </c>
+      <c r="F31">
+        <v>-0.03512243436376532</v>
+      </c>
+      <c r="G31">
+        <v>-0.02652113242470377</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.00878297189223168</v>
+        <v>-0.003171661108665061</v>
       </c>
       <c r="C32">
-        <v>-1.052047016093848e-05</v>
+        <v>0.03519155115604701</v>
       </c>
       <c r="D32">
-        <v>-0.03245885437442852</v>
+        <v>0.004654996499445344</v>
       </c>
       <c r="E32">
-        <v>-0.01107399208822652</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.0123466105126665</v>
+      </c>
+      <c r="F32">
+        <v>0.0770535038965811</v>
+      </c>
+      <c r="G32">
+        <v>-0.05173263291352174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01238319526402104</v>
+        <v>-0.02981186725745857</v>
       </c>
       <c r="C33">
-        <v>-0.02643696873769193</v>
+        <v>0.05105286719698027</v>
       </c>
       <c r="D33">
-        <v>0.009136096722915829</v>
+        <v>-0.01380506361806164</v>
       </c>
       <c r="E33">
-        <v>-0.03319111959039547</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01706802265244805</v>
+      </c>
+      <c r="F33">
+        <v>0.02600544699927321</v>
+      </c>
+      <c r="G33">
+        <v>-0.02199172372073599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.006675090184056972</v>
+        <v>-0.04651134613465489</v>
       </c>
       <c r="C34">
-        <v>-0.02939527345168157</v>
+        <v>0.05365324899314333</v>
       </c>
       <c r="D34">
-        <v>-0.02407765569215019</v>
+        <v>0.006051045592135127</v>
       </c>
       <c r="E34">
-        <v>-0.0333818192628898</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01311182216563621</v>
+      </c>
+      <c r="F34">
+        <v>0.02250601261060638</v>
+      </c>
+      <c r="G34">
+        <v>-0.02656588153256882</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01166598678062041</v>
+        <v>-0.01132174409785231</v>
       </c>
       <c r="C36">
-        <v>-0.01397282650255608</v>
+        <v>0.006101151323828884</v>
       </c>
       <c r="D36">
-        <v>-0.002258268493323648</v>
+        <v>-0.01102199939216869</v>
       </c>
       <c r="E36">
-        <v>0.003093896620377909</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.001424740920532022</v>
+      </c>
+      <c r="F36">
+        <v>-5.47739737672967e-05</v>
+      </c>
+      <c r="G36">
+        <v>-0.01841801404653928</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.004607945943243732</v>
+        <v>-0.03506543454615388</v>
       </c>
       <c r="C38">
-        <v>-0.02364866892561519</v>
+        <v>0.02256607899493501</v>
       </c>
       <c r="D38">
-        <v>-0.005735633053002564</v>
+        <v>0.008372096624525089</v>
       </c>
       <c r="E38">
-        <v>-0.01545286945755073</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002990181847493091</v>
+      </c>
+      <c r="F38">
+        <v>0.002639488022854824</v>
+      </c>
+      <c r="G38">
+        <v>-0.02846998729366019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005192684357453884</v>
+        <v>-0.03273199895035672</v>
       </c>
       <c r="C39">
-        <v>-0.01446660092837778</v>
+        <v>0.08360339744262506</v>
       </c>
       <c r="D39">
-        <v>-0.03072513783830123</v>
+        <v>-0.01146306734949141</v>
       </c>
       <c r="E39">
-        <v>-0.05813975313548588</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.008402507075065138</v>
+      </c>
+      <c r="F39">
+        <v>0.03947444869551932</v>
+      </c>
+      <c r="G39">
+        <v>-0.01746500490647016</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01226152266634921</v>
+        <v>-0.0196563299233973</v>
       </c>
       <c r="C40">
-        <v>-0.02390897381733133</v>
+        <v>0.03178884354489434</v>
       </c>
       <c r="D40">
-        <v>-0.01113457469020384</v>
+        <v>-0.01282391398189734</v>
       </c>
       <c r="E40">
-        <v>-0.03811032709517688</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01442573923990291</v>
+      </c>
+      <c r="F40">
+        <v>0.02259571484934478</v>
+      </c>
+      <c r="G40">
+        <v>-0.01899017892365718</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005508017061465809</v>
+        <v>-0.01269719622787805</v>
       </c>
       <c r="C41">
-        <v>-0.0141248555317979</v>
+        <v>-0.002110559948606077</v>
       </c>
       <c r="D41">
-        <v>0.004137171293452337</v>
+        <v>-0.003332878783109905</v>
       </c>
       <c r="E41">
-        <v>0.007930310530713056</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.003238945629519011</v>
+      </c>
+      <c r="F41">
+        <v>0.0009740949431499814</v>
+      </c>
+      <c r="G41">
+        <v>-0.01248134024887451</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.0891954224885932</v>
+        <v>-0.03510119615456069</v>
       </c>
       <c r="C42">
-        <v>-0.1190471346337542</v>
+        <v>0.05515751470625856</v>
       </c>
       <c r="D42">
-        <v>0.05548017428286801</v>
+        <v>-0.1021035384687061</v>
       </c>
       <c r="E42">
-        <v>-0.1648613871672332</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.06171204408426262</v>
+      </c>
+      <c r="F42">
+        <v>-0.1134737061924622</v>
+      </c>
+      <c r="G42">
+        <v>0.2031584648110583</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.008595124866267238</v>
+        <v>-0.02872723866959054</v>
       </c>
       <c r="C43">
-        <v>-0.01087561686384425</v>
+        <v>0.007060883187196557</v>
       </c>
       <c r="D43">
-        <v>0.005328955499815382</v>
+        <v>-0.003435730118348311</v>
       </c>
       <c r="E43">
-        <v>0.008066685458370297</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.0001607114306925855</v>
+      </c>
+      <c r="F43">
+        <v>0.001056204152619236</v>
+      </c>
+      <c r="G43">
+        <v>-0.01591318072488737</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003439242055220134</v>
+        <v>-0.01643532246460299</v>
       </c>
       <c r="C44">
-        <v>0.0009082508833521516</v>
+        <v>0.04851169247230568</v>
       </c>
       <c r="D44">
-        <v>-0.0154587336262225</v>
+        <v>-0.006483526799242995</v>
       </c>
       <c r="E44">
-        <v>-0.005579806478010534</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01739090909446391</v>
+      </c>
+      <c r="F44">
+        <v>0.02653437795201352</v>
+      </c>
+      <c r="G44">
+        <v>-0.03378253439803035</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01103257679631928</v>
+        <v>-0.001983627921061736</v>
       </c>
       <c r="C46">
-        <v>-0.005418046771752322</v>
+        <v>0.01706868641683474</v>
       </c>
       <c r="D46">
-        <v>-0.01087628864030119</v>
+        <v>-0.01162651472093721</v>
       </c>
       <c r="E46">
-        <v>-0.01708832869886461</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.003340668611847572</v>
+      </c>
+      <c r="F46">
+        <v>-0.007355830858370059</v>
+      </c>
+      <c r="G46">
+        <v>-0.02253939906012763</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.002362870278785117</v>
+        <v>-0.07544078499003369</v>
       </c>
       <c r="C47">
-        <v>-0.07198106298292101</v>
+        <v>0.0620062073525111</v>
       </c>
       <c r="D47">
-        <v>-0.01056759153107217</v>
+        <v>0.005394789708910686</v>
       </c>
       <c r="E47">
-        <v>-0.03392542747119946</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01489401308303644</v>
+      </c>
+      <c r="F47">
+        <v>-0.0615131191959775</v>
+      </c>
+      <c r="G47">
+        <v>-0.02119870512935812</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002370988261881655</v>
+        <v>-0.01905388580422153</v>
       </c>
       <c r="C48">
-        <v>-0.02573268500222033</v>
+        <v>0.01012127666815079</v>
       </c>
       <c r="D48">
-        <v>-0.003408786606969039</v>
+        <v>-0.0008567898174829994</v>
       </c>
       <c r="E48">
-        <v>-0.0007658774823441242</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.003207614158950164</v>
+      </c>
+      <c r="F48">
+        <v>-0.01353114079852386</v>
+      </c>
+      <c r="G48">
+        <v>-0.02488537044662352</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.004437202942377742</v>
+        <v>-0.08049484542382582</v>
       </c>
       <c r="C50">
-        <v>-0.06517925318699767</v>
+        <v>0.06308533826296156</v>
       </c>
       <c r="D50">
-        <v>-0.03659982659443919</v>
+        <v>0.004226270017244048</v>
       </c>
       <c r="E50">
-        <v>-0.02652549977427925</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01381160219278857</v>
+      </c>
+      <c r="F50">
+        <v>-0.05549453187503381</v>
+      </c>
+      <c r="G50">
+        <v>-0.04244949869995627</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007144016986466933</v>
+        <v>-0.01349787521141786</v>
       </c>
       <c r="C51">
-        <v>0.0001098474362682516</v>
+        <v>0.02758601940893466</v>
       </c>
       <c r="D51">
-        <v>-0.004691880142025715</v>
+        <v>-0.008702140998153234</v>
       </c>
       <c r="E51">
-        <v>0.02463084984726423</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.004639287516948849</v>
+      </c>
+      <c r="F51">
+        <v>0.03217101415882719</v>
+      </c>
+      <c r="G51">
+        <v>-0.04475230732017483</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.005515766882944462</v>
+        <v>-0.09695093561864256</v>
       </c>
       <c r="C53">
-        <v>-0.1003810781025186</v>
+        <v>0.07368810342573096</v>
       </c>
       <c r="D53">
-        <v>-0.03859364395651691</v>
+        <v>0.006167911249953575</v>
       </c>
       <c r="E53">
-        <v>-0.06593337411678946</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04047018083902149</v>
+      </c>
+      <c r="F53">
+        <v>-0.06548201210264454</v>
+      </c>
+      <c r="G53">
+        <v>-0.02432644218456816</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001313871223436545</v>
+        <v>-0.02869814514915071</v>
       </c>
       <c r="C54">
-        <v>-0.02432602739075215</v>
+        <v>0.004431747822228891</v>
       </c>
       <c r="D54">
-        <v>-0.00218620267481837</v>
+        <v>0.004194199296096708</v>
       </c>
       <c r="E54">
-        <v>0.01151353944376959</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.002632407721598066</v>
+      </c>
+      <c r="F54">
+        <v>-0.001525904046810659</v>
+      </c>
+      <c r="G54">
+        <v>-0.02944719481319274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0002331355836971232</v>
+        <v>-0.07394163445146812</v>
       </c>
       <c r="C55">
-        <v>-0.078975428091743</v>
+        <v>0.06967601224783494</v>
       </c>
       <c r="D55">
-        <v>-0.02926152620725728</v>
+        <v>0.00498633277128008</v>
       </c>
       <c r="E55">
-        <v>-0.07268183124197433</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.0272287475252218</v>
+      </c>
+      <c r="F55">
+        <v>-0.06220479952776168</v>
+      </c>
+      <c r="G55">
+        <v>-0.01164804335135441</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.003486296334611022</v>
+        <v>-0.1489505258048228</v>
       </c>
       <c r="C56">
-        <v>-0.1479857500071397</v>
+        <v>0.09640247457841099</v>
       </c>
       <c r="D56">
-        <v>-0.0343514940343733</v>
+        <v>0.01501355696803022</v>
       </c>
       <c r="E56">
-        <v>-0.09096234030663621</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04437511669307667</v>
+      </c>
+      <c r="F56">
+        <v>-0.1046769926226238</v>
+      </c>
+      <c r="G56">
+        <v>-0.002651044135522273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02414140487375908</v>
+        <v>-0.01270982445540525</v>
       </c>
       <c r="C57">
-        <v>-0.03388748616147125</v>
+        <v>0.01181649225480504</v>
       </c>
       <c r="D57">
-        <v>-0.00435092901761332</v>
+        <v>-0.02370825369925641</v>
       </c>
       <c r="E57">
-        <v>-0.02496832140170638</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02816194472973488</v>
+      </c>
+      <c r="F57">
+        <v>0.01602757080514308</v>
+      </c>
+      <c r="G57">
+        <v>-0.0225099520225018</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0104639432024482</v>
+        <v>-0.07060234199174709</v>
       </c>
       <c r="C58">
-        <v>-0.09748073559063741</v>
+        <v>0.07644356980447199</v>
       </c>
       <c r="D58">
-        <v>0.1086546159978383</v>
+        <v>-0.02096746873520211</v>
       </c>
       <c r="E58">
-        <v>-0.09562785364956594</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9452314310494047</v>
+      </c>
+      <c r="F58">
+        <v>-0.2227310277934698</v>
+      </c>
+      <c r="G58">
+        <v>-0.06536059374456063</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02911070460523264</v>
+        <v>-0.1461418449377984</v>
       </c>
       <c r="C59">
-        <v>-0.124365741842814</v>
+        <v>-0.21810022974935</v>
       </c>
       <c r="D59">
-        <v>0.1252955391484704</v>
+        <v>0.01695316558164849</v>
       </c>
       <c r="E59">
-        <v>0.1851875409344596</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01745642835584523</v>
+      </c>
+      <c r="F59">
+        <v>0.01115007818973202</v>
+      </c>
+      <c r="G59">
+        <v>-0.01759139188545362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03478393756253428</v>
+        <v>-0.2961588201877</v>
       </c>
       <c r="C60">
-        <v>-0.1926429223717749</v>
+        <v>0.07856700369743262</v>
       </c>
       <c r="D60">
-        <v>0.05219918660859364</v>
+        <v>-0.007234117675452263</v>
       </c>
       <c r="E60">
-        <v>-0.03256395486541366</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.02213918303939167</v>
+      </c>
+      <c r="F60">
+        <v>0.3811305647378626</v>
+      </c>
+      <c r="G60">
+        <v>0.07349024210636526</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.001912864392570036</v>
+        <v>-0.03373087978898649</v>
       </c>
       <c r="C61">
-        <v>-0.02900279334996659</v>
+        <v>0.06354581092983573</v>
       </c>
       <c r="D61">
-        <v>-0.02005122271828689</v>
+        <v>-0.004781517076216197</v>
       </c>
       <c r="E61">
-        <v>-0.05146220193120864</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.004647493152129733</v>
+      </c>
+      <c r="F61">
+        <v>0.02476104404245865</v>
+      </c>
+      <c r="G61">
+        <v>-0.01862710582103912</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007611694723464139</v>
+        <v>-0.01551175685749662</v>
       </c>
       <c r="C63">
-        <v>-0.01467682441836683</v>
+        <v>0.02600106820044712</v>
       </c>
       <c r="D63">
-        <v>-0.01101807342948344</v>
+        <v>-0.007552717761034124</v>
       </c>
       <c r="E63">
-        <v>-0.01347454280901564</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.01333292189596485</v>
+      </c>
+      <c r="F63">
+        <v>-0.01095161377191834</v>
+      </c>
+      <c r="G63">
+        <v>-0.02808771094512511</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.005505810885305501</v>
+        <v>-0.04724342430487846</v>
       </c>
       <c r="C64">
-        <v>-0.04417145428336523</v>
+        <v>0.03487541085165061</v>
       </c>
       <c r="D64">
-        <v>-0.0145516731060955</v>
+        <v>-0.004475315544708811</v>
       </c>
       <c r="E64">
-        <v>-0.03969139504562601</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.01005736249714382</v>
+      </c>
+      <c r="F64">
+        <v>0.01394658549823855</v>
+      </c>
+      <c r="G64">
+        <v>-0.01713687402736825</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01925355758113979</v>
+        <v>-0.08041756421764816</v>
       </c>
       <c r="C65">
-        <v>-0.06250009556817</v>
+        <v>0.06585928550881569</v>
       </c>
       <c r="D65">
-        <v>-0.03191767224653903</v>
+        <v>-0.01518208811549596</v>
       </c>
       <c r="E65">
-        <v>-0.06309259761521599</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.003919905838829579</v>
+      </c>
+      <c r="F65">
+        <v>0.04177882455344779</v>
+      </c>
+      <c r="G65">
+        <v>-0.01070765047183497</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.006623048179878757</v>
+        <v>-0.05503854592434523</v>
       </c>
       <c r="C66">
-        <v>-0.03602830070476915</v>
+        <v>0.1161127756971885</v>
       </c>
       <c r="D66">
-        <v>-0.02229876809295236</v>
+        <v>-0.01059245901567223</v>
       </c>
       <c r="E66">
-        <v>-0.08735086957998624</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.01015183191355805</v>
+      </c>
+      <c r="F66">
+        <v>0.04721103250947487</v>
+      </c>
+      <c r="G66">
+        <v>-0.007589591611625106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0008369443332943092</v>
+        <v>-0.05954904939674453</v>
       </c>
       <c r="C67">
-        <v>-0.04013157457672933</v>
+        <v>0.02519579502913586</v>
       </c>
       <c r="D67">
-        <v>-0.002098904355311106</v>
+        <v>0.007002305874990127</v>
       </c>
       <c r="E67">
-        <v>-0.01599311167235867</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.00376078744339032</v>
+      </c>
+      <c r="F67">
+        <v>0.001277727643940887</v>
+      </c>
+      <c r="G67">
+        <v>-0.02874956524457779</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04358950060003577</v>
+        <v>-0.124793165315096</v>
       </c>
       <c r="C68">
-        <v>-0.1106004886448695</v>
+        <v>-0.2721743191003526</v>
       </c>
       <c r="D68">
-        <v>0.1200180810317921</v>
+        <v>-0.001529299443490476</v>
       </c>
       <c r="E68">
-        <v>0.1974674284484923</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.0208563467769354</v>
+      </c>
+      <c r="F68">
+        <v>-0.01258098818167376</v>
+      </c>
+      <c r="G68">
+        <v>-0.02071684856678794</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.001847753353555422</v>
+        <v>-0.07819996219769093</v>
       </c>
       <c r="C69">
-        <v>-0.05834415312656228</v>
+        <v>0.05952303943540553</v>
       </c>
       <c r="D69">
-        <v>-0.01246080790237074</v>
+        <v>0.009538362630925301</v>
       </c>
       <c r="E69">
-        <v>-0.03342687261197939</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.0299451427377844</v>
+      </c>
+      <c r="F69">
+        <v>-0.03991533089546932</v>
+      </c>
+      <c r="G69">
+        <v>-0.01858171498051771</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.03100342767972488</v>
+        <v>-0.1230853344283377</v>
       </c>
       <c r="C71">
-        <v>-0.1021095010725379</v>
+        <v>-0.2298648807387412</v>
       </c>
       <c r="D71">
-        <v>0.09764774525083608</v>
+        <v>0.007389556245272765</v>
       </c>
       <c r="E71">
-        <v>0.1873117300134155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02706396402612317</v>
+      </c>
+      <c r="F71">
+        <v>-0.01714473232984477</v>
+      </c>
+      <c r="G71">
+        <v>-0.03764630864976935</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.001790611391407493</v>
+        <v>-0.08602555991467611</v>
       </c>
       <c r="C72">
-        <v>-0.1176617912328073</v>
+        <v>0.07846105009862631</v>
       </c>
       <c r="D72">
-        <v>-0.0275250957350686</v>
+        <v>0.008954345437918758</v>
       </c>
       <c r="E72">
-        <v>-0.1197103097595711</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01340731355458083</v>
+      </c>
+      <c r="F72">
+        <v>0.03771385727505299</v>
+      </c>
+      <c r="G72">
+        <v>0.004903839954678751</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04552749156858894</v>
+        <v>-0.4068457452960419</v>
       </c>
       <c r="C73">
-        <v>-0.233743913686983</v>
+        <v>0.09465302298016992</v>
       </c>
       <c r="D73">
-        <v>0.07835799439009956</v>
+        <v>-0.01126209402635636</v>
       </c>
       <c r="E73">
-        <v>-0.1101017451554067</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06466897142315566</v>
+      </c>
+      <c r="F73">
+        <v>0.5341375140324141</v>
+      </c>
+      <c r="G73">
+        <v>0.1345258846080081</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.002103770626669915</v>
+        <v>-0.1191858775539376</v>
       </c>
       <c r="C74">
-        <v>-0.1370802465310753</v>
+        <v>0.1121145185180397</v>
       </c>
       <c r="D74">
-        <v>-0.02683529678373573</v>
+        <v>0.01117182533945899</v>
       </c>
       <c r="E74">
-        <v>-0.0971632713365784</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.03749584775315515</v>
+      </c>
+      <c r="F74">
+        <v>-0.0715721268243701</v>
+      </c>
+      <c r="G74">
+        <v>-0.02057160971338666</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.005877881448109252</v>
+        <v>-0.265265284650375</v>
       </c>
       <c r="C75">
-        <v>-0.2752637937598943</v>
+        <v>0.1369105113509125</v>
       </c>
       <c r="D75">
-        <v>-0.0402698909228643</v>
+        <v>0.03261194640330823</v>
       </c>
       <c r="E75">
-        <v>-0.164673541646798</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.0750397275952934</v>
+      </c>
+      <c r="F75">
+        <v>-0.2167515254303097</v>
+      </c>
+      <c r="G75">
+        <v>0.02265347413477433</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.002283176135187114</v>
+        <v>-0.1411101581627961</v>
       </c>
       <c r="C76">
-        <v>-0.240403858190301</v>
+        <v>0.1171141397821102</v>
       </c>
       <c r="D76">
-        <v>-0.05821417943051761</v>
+        <v>0.02272192783024608</v>
       </c>
       <c r="E76">
-        <v>-0.1504560589222175</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.07014119684765259</v>
+      </c>
+      <c r="F76">
+        <v>-0.1377899345001573</v>
+      </c>
+      <c r="G76">
+        <v>-0.009584673317359953</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01413982974295681</v>
+        <v>-0.06245340737139935</v>
       </c>
       <c r="C77">
-        <v>-0.03831549322648081</v>
+        <v>0.06144967500803647</v>
       </c>
       <c r="D77">
-        <v>-0.02367181842688429</v>
+        <v>-0.01197319751133626</v>
       </c>
       <c r="E77">
-        <v>-0.05534375864316263</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04008164587792074</v>
+      </c>
+      <c r="F77">
+        <v>0.02034528135892478</v>
+      </c>
+      <c r="G77">
+        <v>-0.04342401994434963</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.006777500931256101</v>
+        <v>-0.04011765732219591</v>
       </c>
       <c r="C78">
-        <v>-0.02816609102849712</v>
+        <v>0.05108220464914753</v>
       </c>
       <c r="D78">
-        <v>-0.02186909266842695</v>
+        <v>-0.005284478932757035</v>
       </c>
       <c r="E78">
-        <v>-0.04153278184270938</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01600715936859975</v>
+      </c>
+      <c r="F78">
+        <v>0.04330709404839022</v>
+      </c>
+      <c r="G78">
+        <v>-0.03075761814816277</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01556104742012453</v>
+        <v>-0.06068170396174842</v>
       </c>
       <c r="C80">
-        <v>-0.2290216747462508</v>
+        <v>0.07163440920508625</v>
       </c>
       <c r="D80">
-        <v>-0.8460168797740157</v>
+        <v>-0.01350043527737587</v>
       </c>
       <c r="E80">
-        <v>0.4223694994051497</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.07420780575294106</v>
+      </c>
+      <c r="F80">
+        <v>0.04748406655083897</v>
+      </c>
+      <c r="G80">
+        <v>-0.9168830390857208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.004213187212697676</v>
+        <v>-0.14945776952642</v>
       </c>
       <c r="C81">
-        <v>-0.1900274901459061</v>
+        <v>0.08962623619163256</v>
       </c>
       <c r="D81">
-        <v>-0.03466932583672124</v>
+        <v>0.01700427548526925</v>
       </c>
       <c r="E81">
-        <v>-0.1029295449695478</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04655403829085136</v>
+      </c>
+      <c r="F81">
+        <v>-0.1393296744577461</v>
+      </c>
+      <c r="G81">
+        <v>-0.01384441258972749</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.04813440357134444</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03417535281475539</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002705822454234846</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01905703654242896</v>
+      </c>
+      <c r="F82">
+        <v>-0.002476182039984331</v>
+      </c>
+      <c r="G82">
+        <v>0.007593566137426762</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.005592285474665536</v>
+        <v>-0.02909711720446218</v>
       </c>
       <c r="C83">
-        <v>-0.03034424152323883</v>
+        <v>0.01920067559817247</v>
       </c>
       <c r="D83">
-        <v>0.00120106790176062</v>
+        <v>-0.005091611414563561</v>
       </c>
       <c r="E83">
-        <v>-0.009729365508605318</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02592731040409058</v>
+      </c>
+      <c r="F83">
+        <v>0.02458893368350042</v>
+      </c>
+      <c r="G83">
+        <v>-0.02720316052082732</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01270564530076406</v>
+        <v>-0.2410243832757389</v>
       </c>
       <c r="C85">
-        <v>-0.2426085427990633</v>
+        <v>0.1412054585107371</v>
       </c>
       <c r="D85">
-        <v>-0.0396929069510558</v>
+        <v>0.02119884098910249</v>
       </c>
       <c r="E85">
-        <v>-0.1849785116008267</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1184738124845289</v>
+      </c>
+      <c r="F85">
+        <v>-0.2039989854115551</v>
+      </c>
+      <c r="G85">
+        <v>0.04585072518861538</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009608264858560861</v>
+        <v>-0.009601731381416191</v>
       </c>
       <c r="C86">
-        <v>0.002175933157595164</v>
+        <v>0.02379168756951864</v>
       </c>
       <c r="D86">
-        <v>-0.009500266806483684</v>
+        <v>-0.009623742120807957</v>
       </c>
       <c r="E86">
-        <v>-0.008708860661351965</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02218671042632266</v>
+      </c>
+      <c r="F86">
+        <v>0.02177424781574868</v>
+      </c>
+      <c r="G86">
+        <v>-0.05350232858175637</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.00745292387981105</v>
+        <v>-0.01619794879536159</v>
       </c>
       <c r="C87">
-        <v>-0.01729752399741808</v>
+        <v>0.02729570866900364</v>
       </c>
       <c r="D87">
-        <v>-0.01200487253217119</v>
+        <v>-0.01134772669846987</v>
       </c>
       <c r="E87">
-        <v>-0.02136047402326249</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.07745716114929017</v>
+      </c>
+      <c r="F87">
+        <v>0.06112276961620645</v>
+      </c>
+      <c r="G87">
+        <v>-0.03926006052303616</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.006419094226902359</v>
+        <v>-0.09083135323603597</v>
       </c>
       <c r="C88">
-        <v>-0.05691544779570326</v>
+        <v>0.05127580552794195</v>
       </c>
       <c r="D88">
-        <v>0.00609083656769411</v>
+        <v>-0.02088767488598108</v>
       </c>
       <c r="E88">
-        <v>-0.01548734433475889</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.004901593394422053</v>
+      </c>
+      <c r="F88">
+        <v>-0.000618245170751115</v>
+      </c>
+      <c r="G88">
+        <v>-0.02467872037773147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.06187314726119233</v>
+        <v>-0.2107269214223653</v>
       </c>
       <c r="C89">
-        <v>-0.2084685097690559</v>
+        <v>-0.3760064848485115</v>
       </c>
       <c r="D89">
-        <v>0.2211360081703654</v>
+        <v>0.009098896814040979</v>
       </c>
       <c r="E89">
-        <v>0.326547772274466</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.009390877774945539</v>
+      </c>
+      <c r="F89">
+        <v>-0.02999720163903832</v>
+      </c>
+      <c r="G89">
+        <v>-0.03001226271982511</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.04416525306000416</v>
+        <v>-0.1757316688979924</v>
       </c>
       <c r="C90">
-        <v>-0.125902187917924</v>
+        <v>-0.3405754560644217</v>
       </c>
       <c r="D90">
-        <v>0.1775021643644431</v>
+        <v>0.0117397804895386</v>
       </c>
       <c r="E90">
-        <v>0.2605401958393333</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.007418099866646505</v>
+      </c>
+      <c r="F90">
+        <v>-0.04375737083397949</v>
+      </c>
+      <c r="G90">
+        <v>-0.005063480458839037</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.005754113532169368</v>
+        <v>-0.2153561825060829</v>
       </c>
       <c r="C91">
-        <v>-0.2687684807070705</v>
+        <v>0.1293220226723037</v>
       </c>
       <c r="D91">
-        <v>-0.04481112008974553</v>
+        <v>0.02591711012313896</v>
       </c>
       <c r="E91">
-        <v>-0.191421785548184</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08566619828541834</v>
+      </c>
+      <c r="F91">
+        <v>-0.1934362586401771</v>
+      </c>
+      <c r="G91">
+        <v>0.007080246597784183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.01243331537480662</v>
+        <v>-0.203319662255451</v>
       </c>
       <c r="C92">
-        <v>-0.2829901971807885</v>
+        <v>-0.2763414981314447</v>
       </c>
       <c r="D92">
-        <v>0.1726324395099745</v>
+        <v>0.05486160060655031</v>
       </c>
       <c r="E92">
-        <v>0.2386225357927499</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.002903165247363697</v>
+      </c>
+      <c r="F92">
+        <v>-0.1339140266759531</v>
+      </c>
+      <c r="G92">
+        <v>-0.0657622674240457</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.04715834920007663</v>
+        <v>-0.2013272430374097</v>
       </c>
       <c r="C93">
-        <v>-0.1932460843580291</v>
+        <v>-0.3363656266662278</v>
       </c>
       <c r="D93">
-        <v>0.2238933775628417</v>
+        <v>0.01875444401780251</v>
       </c>
       <c r="E93">
-        <v>0.2981058363369686</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01264375380452039</v>
+      </c>
+      <c r="F93">
+        <v>-0.01800119429332697</v>
+      </c>
+      <c r="G93">
+        <v>-0.0007780766266932366</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02465047042496473</v>
+        <v>-0.2852028182932438</v>
       </c>
       <c r="C94">
-        <v>-0.3073630161814067</v>
+        <v>0.1467659924002567</v>
       </c>
       <c r="D94">
-        <v>0.005450412131467549</v>
+        <v>0.01449880878639732</v>
       </c>
       <c r="E94">
-        <v>-0.1770360055690291</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.09856365965265808</v>
+      </c>
+      <c r="F94">
+        <v>-0.3989698013850489</v>
+      </c>
+      <c r="G94">
+        <v>0.1211993238011955</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.00620918268267628</v>
+        <v>-0.0849128202989341</v>
       </c>
       <c r="C95">
-        <v>-0.08000932925519055</v>
+        <v>0.07421198209332126</v>
       </c>
       <c r="D95">
-        <v>0.07102171236839842</v>
+        <v>0.008142631620550496</v>
       </c>
       <c r="E95">
-        <v>-0.05566084363054911</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07832249871726522</v>
+      </c>
+      <c r="F95">
+        <v>0.1547238576509776</v>
+      </c>
+      <c r="G95">
+        <v>0.07062226143657034</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.007817089488003004</v>
+        <v>-0.2135404954907423</v>
       </c>
       <c r="C98">
-        <v>-0.1946121883625292</v>
+        <v>0.04330789227005738</v>
       </c>
       <c r="D98">
-        <v>0.05345794986189603</v>
+        <v>0.01771230211361201</v>
       </c>
       <c r="E98">
-        <v>-0.04775212594608914</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06604949763610035</v>
+      </c>
+      <c r="F98">
+        <v>0.2402135991677763</v>
+      </c>
+      <c r="G98">
+        <v>0.03902258220064605</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.009108708370353637</v>
+        <v>-0.01280947649489216</v>
       </c>
       <c r="C101">
-        <v>-0.02419129682373255</v>
+        <v>0.02029186558567087</v>
       </c>
       <c r="D101">
-        <v>-0.003290059752262802</v>
+        <v>-0.008500398560941719</v>
       </c>
       <c r="E101">
-        <v>-0.007650374088344982</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03530848831809983</v>
+      </c>
+      <c r="F101">
+        <v>-0.02358314431334548</v>
+      </c>
+      <c r="G101">
+        <v>-0.03892331230184448</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.0172677732191676</v>
+        <v>-0.1278627625830802</v>
       </c>
       <c r="C102">
-        <v>-0.1427600121197662</v>
+        <v>0.07645912969797074</v>
       </c>
       <c r="D102">
-        <v>-0.01991098590915289</v>
+        <v>0.0009985957317567842</v>
       </c>
       <c r="E102">
-        <v>-0.09187968555805597</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04354098517463759</v>
+      </c>
+      <c r="F102">
+        <v>-0.06406919352033384</v>
+      </c>
+      <c r="G102">
+        <v>0.01254983111882733</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.002702023588782216</v>
+        <v>-0.005586774420595295</v>
       </c>
       <c r="C103">
-        <v>-0.02925293352883491</v>
+        <v>0.005440072067249332</v>
       </c>
       <c r="D103">
-        <v>-0.01851136836862989</v>
+        <v>-0.0003430606612140115</v>
       </c>
       <c r="E103">
-        <v>-0.01644299188982143</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001764165463399215</v>
+      </c>
+      <c r="F103">
+        <v>-0.009077217731814432</v>
+      </c>
+      <c r="G103">
+        <v>-0.01432309200819731</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.983511695435377</v>
+        <v>-0.03999939658427547</v>
       </c>
       <c r="C104">
-        <v>0.1113665427673644</v>
+        <v>-0.0463145923470934</v>
       </c>
       <c r="D104">
-        <v>-0.04244984086139804</v>
+        <v>-0.9859788477605681</v>
       </c>
       <c r="E104">
-        <v>-0.04003932516235027</v>
+        <v>0.04427153632201501</v>
+      </c>
+      <c r="F104">
+        <v>-0.03847810237517139</v>
+      </c>
+      <c r="G104">
+        <v>0.00170874239864333</v>
       </c>
     </row>
   </sheetData>
